--- a/data/income_statement/2digits/size/90_IS_MICRO.xlsx
+++ b/data/income_statement/2digits/size/90_IS_MICRO.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>90-Creative, arts and entertainment activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>90-Creative, arts and entertainment activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,248 +841,283 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>60156.04152000001</v>
+        <v>66272.80675999999</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>70321.45337999999</v>
+        <v>75725.40474</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>87024.03479000001</v>
+        <v>92404.20634</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>92891.75764</v>
+        <v>103206.93529</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>110546.22648</v>
+        <v>121170.43412</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>117895.41742</v>
+        <v>127003.11024</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>106832.65325</v>
+        <v>123795.65957</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>117515.83322</v>
+        <v>128373.95201</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>113691.51106</v>
+        <v>130833.70333</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>258054.68404</v>
+        <v>281987.47572</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>286814.18314</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>331943.19428</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>260035.047</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>58115.81593</v>
+        <v>63903.69332999999</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>68592.13094</v>
+        <v>73722.86892000001</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>82379.03934999999</v>
+        <v>87687.05665000001</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>86950.99507999999</v>
+        <v>96638.54828</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>104896.58061</v>
+        <v>114655.79622</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>109124.90112</v>
+        <v>117870.15516</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>98281.67585</v>
+        <v>113944.06364</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>111984.75613</v>
+        <v>121781.11496</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>108990.43985</v>
+        <v>124138.89174</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>244022.81165</v>
+        <v>267704.24864</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>267908.03335</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>312023.74471</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>240470.728</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>900.6252099999999</v>
+        <v>1042.28818</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>582.66815</v>
+        <v>648.37695</v>
       </c>
       <c r="E7" s="48" t="n">
         <v>2691.03093</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>3508.89729</v>
+        <v>3735.60031</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>2780.7893</v>
+        <v>2987.60004</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>3799.77756</v>
+        <v>3820.62562</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>2632.26141</v>
+        <v>3429.12147</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>2584.99015</v>
+        <v>2585.62948</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>2556.73765</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>5402.895860000001</v>
+        <v>5423.85456</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>5513.04597</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>6384.20678</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>11908.342</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>1139.60038</v>
+        <v>1326.82525</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>1146.65429</v>
+        <v>1354.15887</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>1953.96451</v>
+        <v>2026.11876</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>2431.86527</v>
+        <v>2832.7867</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>2868.85657</v>
+        <v>3527.03786</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>4970.73874</v>
+        <v>5312.32946</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>5918.715990000001</v>
+        <v>6422.47446</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>2946.08694</v>
+        <v>4007.20757</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>2144.33356</v>
+        <v>4138.07394</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>8628.97653</v>
+        <v>8859.372519999999</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>13393.10382</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>13535.24279</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>7655.977</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>360.20364</v>
+        <v>362.17228</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>769.84898</v>
+        <v>790.50891</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>451.76127</v>
+        <v>587.0179000000001</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>565.4694300000001</v>
+        <v>582.38875</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>357.65869</v>
+        <v>442.84107</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>641.6375400000001</v>
+        <v>650.17427</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>1036.01596</v>
+        <v>1133.79436</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>654.34775</v>
+        <v>684.68393</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>959.4547299999999</v>
+        <v>1222.16937</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>991.70806</v>
+        <v>1001.76806</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>1916.10572</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>2006.22032</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>5329.871</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>323.05965</v>
+        <v>324.52829</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>705.18175</v>
+        <v>725.84168</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>420.36458</v>
+        <v>555.62121</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>545.47131</v>
+        <v>562.39063</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>352.294</v>
+        <v>437.47638</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>534.98892</v>
+        <v>543.52565</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>809.0933199999999</v>
+        <v>906.5586</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>527.1984200000001</v>
+        <v>557.5346</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>774.49229</v>
+        <v>907.9302299999999</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>455.9392800000001</v>
+        <v>465.9992800000001</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>1727.93852</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>1818.05312</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>5244.208</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>14.41304</v>
@@ -1208,7 +1144,7 @@
         <v>125.79283</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>98.41467999999999</v>
+        <v>227.58888</v>
       </c>
       <c r="L11" s="48" t="n">
         <v>65.65360000000001</v>
@@ -1216,14 +1152,19 @@
       <c r="M11" s="48" t="n">
         <v>167.49648</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>28.638</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>22.73095</v>
+        <v>23.23095</v>
       </c>
       <c r="D12" s="48" t="n">
         <v>11.68035</v>
@@ -1241,13 +1182,13 @@
         <v>1.90729</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>1</v>
+        <v>1.31312</v>
       </c>
       <c r="J12" s="48" t="n">
         <v>1.3565</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>86.54776</v>
+        <v>86.65025999999999</v>
       </c>
       <c r="L12" s="48" t="n">
         <v>470.11518</v>
@@ -1255,92 +1196,107 @@
       <c r="M12" s="48" t="n">
         <v>20.67072</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>57.025</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>59795.83788</v>
+        <v>65910.63447999999</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>69551.60440000001</v>
+        <v>74934.89582999999</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>86572.27352</v>
+        <v>91817.18844</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>92326.28821</v>
+        <v>102624.54654</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>110188.56779</v>
+        <v>120727.59305</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>117253.77988</v>
+        <v>126352.93597</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>105796.63729</v>
+        <v>122661.86521</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>116861.48547</v>
+        <v>127689.26808</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>112732.05633</v>
+        <v>129611.53396</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>257062.97598</v>
+        <v>280985.70766</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>284898.07742</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>329936.97396</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>254705.176</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>40905.065</v>
+        <v>43830.00933</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>47367.28464</v>
+        <v>50892.73729999999</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>58719.57284</v>
+        <v>62195.09183</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>63197.59286</v>
+        <v>69398.84921</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>81478.43942</v>
+        <v>85603.92204</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>84110.38283</v>
+        <v>87766.63445</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>65478.74308</v>
+        <v>75995.28676999999</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>68868.97026999999</v>
+        <v>76320.88665</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>77322.84723999999</v>
+        <v>86907.56664</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>196049.89985</v>
+        <v>211490.77412</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>203126.39527</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>233669.32308</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>188743.442</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>329.64826</v>
+        <v>390.32454</v>
       </c>
       <c r="D15" s="48" t="n">
         <v>897.62961</v>
@@ -1349,115 +1305,130 @@
         <v>1474.27172</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>1403.96536</v>
+        <v>1803.21193</v>
       </c>
       <c r="G15" s="48" t="n">
         <v>1654.90809</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>1863.48379</v>
+        <v>2289.83237</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>540.10565</v>
+        <v>2834.6188</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>1528.66769</v>
+        <v>2625.97191</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>3690.08426</v>
+        <v>3756.08426</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>7589.9002</v>
+        <v>8003.99547</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>10423.53534</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>11267.43557</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>9342.851000000001</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>6792.33871</v>
+        <v>7176.356309999999</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>6172.63713</v>
+        <v>6455.54109</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>7452.46654</v>
+        <v>8201.19399</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>7480.87187</v>
+        <v>8060.51515</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>21203.42082</v>
+        <v>21693.87599</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>20233.58085</v>
+        <v>20319.85129</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>6978.10359</v>
+        <v>8702.142380000001</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>9989.166569999999</v>
+        <v>12295.20637</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>8510.124960000001</v>
+        <v>9692.48108</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>38191.47893</v>
+        <v>38280.5177</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>26300.13252</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>34079.92613</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>41916.128</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>33783.07803</v>
+        <v>36022.32848</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>40248.27597</v>
+        <v>43490.82467</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>48898.30258</v>
+        <v>51625.09411999999</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>54311.84912</v>
+        <v>59428.27462</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>58605.28000999999</v>
+        <v>62240.30746</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>61815.93518</v>
+        <v>64959.56778</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>57523.78618</v>
+        <v>64021.77793</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>57018.05249</v>
+        <v>61066.62485</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>64632.8798</v>
+        <v>72969.24308</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>149343.07264</v>
+        <v>164280.81287</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>162138.87287</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>184058.10684</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>135947.267</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>0</v>
+        <v>241</v>
       </c>
       <c r="D18" s="48" t="n">
         <v>48.74193</v>
@@ -1466,7 +1437,7 @@
         <v>894.532</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>0.90651</v>
+        <v>106.84751</v>
       </c>
       <c r="G18" s="48" t="n">
         <v>14.8305</v>
@@ -1489,89 +1460,104 @@
       <c r="M18" s="48" t="n">
         <v>4263.85454</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>1537.196</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>18890.77288</v>
+        <v>22080.62515</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>22184.31976</v>
+        <v>24042.15853</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>27852.70068</v>
+        <v>29622.09661</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>29128.69535</v>
+        <v>33225.69733</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>28710.12837</v>
+        <v>35123.67101</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>33143.39705</v>
+        <v>38586.30152</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>40317.89421</v>
+        <v>46666.57844</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>47992.5152</v>
+        <v>51368.38143</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>35409.20909</v>
+        <v>42703.96732</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>61013.07613</v>
+        <v>69494.93354000001</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>81771.68215000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>96267.65088</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>65961.734</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>17278.14849</v>
+        <v>18873.36138</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>19349.48686</v>
+        <v>20910.31065</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>23107.36305</v>
+        <v>25383.84406</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>26687.44843</v>
+        <v>31376.50185</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>32434.47218</v>
+        <v>37509.60297</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>34634.05377000001</v>
+        <v>39325.97295</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>44267.21391</v>
+        <v>51457.81203</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>49291.35574</v>
+        <v>53989.44835</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>38631.61616</v>
+        <v>47897.12001</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>58833.97322</v>
+        <v>63712.14881</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>76938.60131</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>87128.13551000001</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>75373.542</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>0</v>
@@ -1595,7 +1581,7 @@
         <v>130.9858</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K21" s="48" t="n">
         <v>0</v>
@@ -1606,167 +1592,192 @@
       <c r="M21" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>2986.90859</v>
+        <v>3002.79826</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>3234.17365</v>
+        <v>3274.50576</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>2597.90106</v>
+        <v>2797.81612</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>2572.02587</v>
+        <v>2706.5119</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>4438.64109</v>
+        <v>4454.26158</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>3669.83431</v>
+        <v>3878.91224</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>5999.06024</v>
+        <v>6342.95916</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>4629.87714</v>
+        <v>5012.8552</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>2924.89037</v>
+        <v>4596.330089999999</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>4776.47142</v>
+        <v>5424.71217</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>5207.84941</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>7472.94355</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>7585.449</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>14291.2399</v>
+        <v>15870.56312</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>16112.07731</v>
+        <v>17632.56899</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>20505.62595</v>
+        <v>22582.1919</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>23913.04744</v>
+        <v>28467.61483</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>27969.37934</v>
+        <v>33028.88964</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>30958.05502</v>
+        <v>35440.89627</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>38137.16787</v>
+        <v>44983.86707</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>44661.4786</v>
+        <v>48968.59315</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>35706.72579</v>
+        <v>43300.78992</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>54057.5018</v>
+        <v>58287.43664</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>71730.7519</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>79655.19196</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>67490.09299999999</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>1612.62439</v>
+        <v>3207.26377</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>2834.8329</v>
+        <v>3131.84788</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>4745.33763</v>
+        <v>4238.25255</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>2441.24692</v>
+        <v>1849.19548</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>-3724.34381</v>
+        <v>-2385.93196</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>-1490.65672</v>
+        <v>-739.6714300000001</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>-3949.3197</v>
+        <v>-4791.23359</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>-1298.84054</v>
+        <v>-2621.06692</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>-3222.40707</v>
+        <v>-5193.152690000001</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>2179.10291</v>
+        <v>5782.78473</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>4833.08084</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>9139.515369999999</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>-9411.808000000001</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>741.77292</v>
+        <v>1618.63606</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>905.99896</v>
+        <v>1560.35974</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>687.95574</v>
+        <v>1617.00487</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>672.23307</v>
+        <v>1636.95911</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>1103.46198</v>
+        <v>2482.6052</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>1273.77386</v>
+        <v>1592.08801</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>964.3727700000001</v>
+        <v>1755.2669</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>1303.2753</v>
+        <v>3731.15697</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>1316.91022</v>
+        <v>6413.762019999999</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>3668.09666</v>
+        <v>8383.45433</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>2615.82591</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>5484.81216</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>10032.409</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>0</v>
@@ -1793,19 +1804,24 @@
         <v>0</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>0</v>
+        <v>3960.74465</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>1e-05</v>
+        <v>2226.67812</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>858.90218</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>1070.963</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1840,50 +1856,60 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>188.37151</v>
+        <v>986.25318</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>202.06471</v>
+        <v>843.9219899999999</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>141.25058</v>
+        <v>747.88167</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>169.2413</v>
+        <v>946.13541</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>247.64432</v>
+        <v>930.1649100000001</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>143.93039</v>
+        <v>419.94149</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>203.81061</v>
+        <v>593.15003</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>223.26072</v>
+        <v>391.46452</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>304.21282</v>
+        <v>859.4430699999999</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>960.2300600000001</v>
+        <v>1575.22763</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>868.87261</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>1544.32893</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>1715.067</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>0.6</v>
@@ -1901,10 +1927,10 @@
         <v>1.095</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>11.82678</v>
+        <v>12.07678</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>1.05509</v>
+        <v>1.70934</v>
       </c>
       <c r="J29" s="48" t="n">
         <v>0</v>
@@ -1918,26 +1944,31 @@
       <c r="M29" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>30.508</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>0</v>
+        <v>54.8</v>
       </c>
       <c r="D30" s="48" t="n">
         <v>92.861</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F30" s="48" t="n">
         <v>0</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>264.8577</v>
+        <v>269.5777</v>
       </c>
       <c r="H30" s="48" t="n">
         <v>63.08762</v>
@@ -1957,35 +1988,40 @@
       <c r="M30" s="48" t="n">
         <v>63.08762</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>41.824</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>6.32988</v>
+        <v>9.872819999999999</v>
       </c>
       <c r="D31" s="48" t="n">
         <v>5.49726</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>7.592770000000001</v>
+        <v>7.59815</v>
       </c>
       <c r="F31" s="48" t="n">
         <v>12.77691</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>15.24187</v>
+        <v>17.36493</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>11.57223</v>
+        <v>23.01744</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>17.35889</v>
+        <v>41.57413</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>3.13269</v>
+        <v>71.05989</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>14.01673</v>
@@ -1994,52 +2030,62 @@
         <v>172.21438</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>14.48176</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>110.48176</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>47.568</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>434.39473</v>
+        <v>455.03246</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>447.41963</v>
+        <v>449.34705</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>392.19921</v>
+        <v>707.61187</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>210.1558</v>
+        <v>390.06867</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>444.44051</v>
+        <v>1136.49887</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>195.74707</v>
+        <v>198.28962</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>222.93615</v>
+        <v>540.4530500000001</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>474.11608</v>
+        <v>2536.16679</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>369.35444</v>
+        <v>944.0184499999999</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>1928.66356</v>
+        <v>2591.31924</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>819.8069399999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>1993.19839</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>4349.254</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>3e-05</v>
@@ -2113,101 +2164,116 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>112.07677</v>
+        <v>112.07757</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>157.96814</v>
+        <v>168.54422</v>
       </c>
       <c r="E35" s="48" t="n">
         <v>145.3242</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>262.90814</v>
+        <v>270.8272</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>127.71011</v>
+        <v>125.43132</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>847.60977</v>
+        <v>875.67506</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>419.40371</v>
+        <v>478.57203</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>539.67819</v>
+        <v>669.37815</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>557.7309399999999</v>
+        <v>563.9438299999999</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>543.90103</v>
+        <v>1754.92734</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>849.5769799999999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>914.8132800000001</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>2777.225</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>736.4665500000001</v>
+        <v>838.98738</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>839.07443</v>
+        <v>927.56998</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>673.53016</v>
+        <v>1025.99338</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>465.73015</v>
+        <v>719.62736</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>1193.58413</v>
+        <v>1521.84623</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>454.30173</v>
+        <v>608.1015699999999</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>414.45655</v>
+        <v>1027.31161</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>489.19493</v>
+        <v>860.8813100000001</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>355.92177</v>
+        <v>2096.5948</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>1111.06362</v>
+        <v>9948.962960000001</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>1294.1048</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>4143.88047</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>4304.633</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>0.44678</v>
+        <v>21.78878</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>65.87658999999999</v>
+        <v>108.38492</v>
       </c>
       <c r="E37" s="48" t="n">
         <v>16.72862</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>241.50645</v>
+        <v>241.59566</v>
       </c>
       <c r="G37" s="48" t="n">
         <v>25.89862</v>
@@ -2216,28 +2282,33 @@
         <v>37.47014</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>40.54331</v>
+        <v>56.79931</v>
       </c>
       <c r="J37" s="48" t="n">
         <v>61.37192</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>108.87686</v>
+        <v>109.31701</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>117.07601</v>
+        <v>129.07601</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>213.17375</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>217.37817</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>125.003</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>136.70003</v>
+        <v>191.50003</v>
       </c>
       <c r="D38" s="48" t="n">
         <v>149.19494</v>
@@ -2249,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>324.16262</v>
+        <v>328.88262</v>
       </c>
       <c r="H38" s="48" t="n">
         <v>35</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>161.97393</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>298.992</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0</v>
@@ -2294,13 +2370,13 @@
         <v>0.03179</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>0</v>
+        <v>314.06596</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>0</v>
+        <v>1.32722</v>
       </c>
       <c r="L39" s="48" t="n">
         <v>0.9901</v>
@@ -2308,50 +2384,60 @@
       <c r="M39" s="48" t="n">
         <v>0.17015</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>390.14334</v>
+        <v>416.52217</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>411.80286</v>
+        <v>417.76675</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>582.56379</v>
+        <v>928.99933</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>145.76975</v>
+        <v>345.37775</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>705.9219300000001</v>
+        <v>823.58034</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>191.80404</v>
+        <v>192.88431</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>114.04421</v>
+        <v>298.78862</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>146.08959</v>
+        <v>502.97286</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>166.39463</v>
+        <v>1905.29487</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>846.0045</v>
+        <v>8809.646839999999</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>806.3990600000001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>3635.47253</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>3058.79</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,128 +2516,148 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>209.1764</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>212.16797</v>
+        <v>252.1913</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>74.23775000000001</v>
+        <v>80.26542999999999</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>76.53106</v>
+        <v>130.73106</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>136.70152</v>
+        <v>342.58521</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>189.99576</v>
+        <v>342.71533</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>259.86903</v>
+        <v>357.65772</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>224.17511</v>
+        <v>232.97822</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>80.65028</v>
+        <v>80.6557</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>146.99301</v>
+        <v>1009.25001</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>112.38791</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>128.88569</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>821.848</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>551.31087</v>
+        <v>574.72177</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>452.27387</v>
+        <v>484.65938</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>406.28536</v>
+        <v>501.24439</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>595.5808199999999</v>
+        <v>722.31214</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>569.44524</v>
+        <v>1041.5939</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>474.89373</v>
+        <v>960.38167</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>691.45424</v>
+        <v>1126.51904</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>991.16882</v>
+        <v>1276.66683</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>1017.18732</v>
+        <v>2291.24962</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>2073.31452</v>
+        <v>12274.8895</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>2172.75841</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>3603.38552</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>2997.621</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>545.86475</v>
+        <v>569.27565</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>423.28048</v>
+        <v>455.66599</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>389.8207</v>
+        <v>484.77973</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>595.5808199999999</v>
+        <v>718.9564499999999</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>558.01072</v>
+        <v>684.2906400000001</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>469.20021</v>
+        <v>827.13004</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>688.4834499999999</v>
+        <v>1089.38989</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>893.1590200000001</v>
+        <v>1178.65703</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>943.52441</v>
+        <v>2167.87466</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>1872.74931</v>
+        <v>12074.32429</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>1990.23553</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>3420.86264</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>2989.956</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>5.44612</v>
@@ -2558,22 +2669,22 @@
         <v>16.46466</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>0</v>
+        <v>3.35569</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>11.43452</v>
+        <v>357.30326</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>5.69352</v>
+        <v>133.25163</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>2.97079</v>
+        <v>37.12915</v>
       </c>
       <c r="J46" s="48" t="n">
         <v>98.0098</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>73.66291</v>
+        <v>123.37496</v>
       </c>
       <c r="L46" s="48" t="n">
         <v>200.56521</v>
@@ -2581,89 +2692,104 @@
       <c r="M46" s="48" t="n">
         <v>182.52288</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>7.665</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>1066.61989</v>
+        <v>3412.19068</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>2449.48356</v>
+        <v>3279.97826</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>4353.477849999999</v>
+        <v>4328.01965</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>2052.16902</v>
+        <v>2044.21509</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-4383.9112</v>
+        <v>-2466.76689</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>-1146.07832</v>
+        <v>-716.0666600000001</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-4090.85772</v>
+        <v>-5189.79734</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-1475.92899</v>
+        <v>-1027.45809</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>-3278.60594</v>
+        <v>-3167.23509</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>2662.82143</v>
+        <v>-8057.6134</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>3982.04354</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>6877.06154</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-6681.653</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>306.45106</v>
+        <v>307.29526</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>332.71836</v>
+        <v>1143.8641</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>771.53713</v>
+        <v>875.0276</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>623.4674399999999</v>
+        <v>3076.62464</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>806.90027</v>
+        <v>1204.60216</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>1185.67303</v>
+        <v>2012.2292</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>1230.20666</v>
+        <v>1617.20864</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>2297.29203</v>
+        <v>2549.53979</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>1633.40647</v>
+        <v>1798.88076</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>1626.45963</v>
+        <v>4965.729</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>3719.16616</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>4038.49138</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>7793.536</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>0.27817</v>
@@ -2672,16 +2798,16 @@
         <v>0</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>0.03811999999999999</v>
+        <v>10.62408</v>
       </c>
       <c r="F49" s="48" t="n">
         <v>4.84899</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>20.52009</v>
+        <v>22.15652</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>0.01282</v>
+        <v>93.39955999999999</v>
       </c>
       <c r="I49" s="48" t="n">
         <v>219.97174</v>
@@ -2698,95 +2824,110 @@
       <c r="M49" s="48" t="n">
         <v>16.98208</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>102.28</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>306.17289</v>
+        <v>307.0170900000001</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>332.71836</v>
+        <v>1143.8641</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>771.49901</v>
+        <v>864.4035200000001</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>618.6184499999999</v>
+        <v>3071.77565</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>786.38018</v>
+        <v>1182.44564</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>1185.66021</v>
+        <v>1918.82964</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>1010.23492</v>
+        <v>1397.2369</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>2290.52899</v>
+        <v>2542.77675</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>1633.08383</v>
+        <v>1798.55812</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>1575.49099</v>
+        <v>4914.76036</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>3702.18408</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>4021.5093</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>7691.256</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>422.6219</v>
+        <v>791.88224</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>1183.15301</v>
+        <v>2380.63442</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>10638.07484</v>
+        <v>12561.0337</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>1178.41371</v>
+        <v>1623.45131</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>1473.29505</v>
+        <v>1991.16207</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>3789.15126</v>
+        <v>6519.18096</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>1820.16744</v>
+        <v>6656.85746</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>7494.63553</v>
+        <v>15289.06243</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>1844.29961</v>
+        <v>3458.42935</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>5597.60513</v>
+        <v>9644.804529999999</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>2199.91489</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>2577.63412</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>5642.421</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>0</v>
+        <v>297.50423</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>0.02791</v>
+        <v>216.94178</v>
       </c>
       <c r="E52" s="48" t="n">
         <v>38.10084</v>
@@ -2795,19 +2936,19 @@
         <v>0.35487</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>9.737459999999999</v>
+        <v>47.27143</v>
       </c>
       <c r="H52" s="48" t="n">
         <v>0.92384</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>0.04147</v>
+        <v>1.66191</v>
       </c>
       <c r="J52" s="48" t="n">
         <v>0.79645</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>8.25</v>
+        <v>8.26444</v>
       </c>
       <c r="L52" s="48" t="n">
         <v>82.88652999999999</v>
@@ -2815,203 +2956,231 @@
       <c r="M52" s="48" t="n">
         <v>8.76562</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>168.303</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>28.57366</v>
+        <v>29.1192</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>16.62347</v>
+        <v>124.93013</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>226.71323</v>
+        <v>333.39674</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>393.46553</v>
+        <v>393.51469</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>136.74782</v>
+        <v>137.78577</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>105.75887</v>
+        <v>106.42601</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>7.28052</v>
+        <v>8.731020000000001</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>26.34896</v>
+        <v>27.73711</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>34.21405</v>
+        <v>42.89230000000001</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>31.94469</v>
+        <v>32.03851</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>314.15306</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>314.54546</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>1920.545</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>394.04824</v>
+        <v>465.25881</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>1166.50163</v>
+        <v>2038.76251</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>10373.26077</v>
+        <v>12189.53612</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>784.5933100000001</v>
+        <v>1229.58175</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>1326.80977</v>
+        <v>1806.10487</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>3682.46855</v>
+        <v>6411.83111</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>1812.84545</v>
+        <v>6646.46453</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>7467.49012</v>
+        <v>15260.52887</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>1801.83556</v>
+        <v>3407.27261</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>5482.77391</v>
+        <v>9529.879489999999</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>1876.99621</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>2254.32304</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>3553.573</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>950.4490500000001</v>
+        <v>2927.6037</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>1599.04891</v>
+        <v>2043.20794</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-5513.05986</v>
+        <v>-7357.98645</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>1497.22275</v>
+        <v>3497.38842</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-5050.30598</v>
+        <v>-3253.3268</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-3749.55655</v>
+        <v>-5223.01842</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-4680.8185</v>
+        <v>-10229.44616</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-6673.27249</v>
+        <v>-13766.98073</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>-3489.49908</v>
+        <v>-4826.78368</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-1308.32407</v>
+        <v>-12736.68893</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>5501.294809999999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>8337.918799999999</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-4530.538</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>759.88095</v>
+        <v>974.8733199999999</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>946.3741600000001</v>
+        <v>1178.28248</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>1344.60535</v>
+        <v>1610.78897</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>1314.86414</v>
+        <v>1966.11697</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>1118.73854</v>
+        <v>1509.29473</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>1401.2455</v>
+        <v>1577.88036</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>999.4066800000001</v>
+        <v>1336.31106</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>1474.92396</v>
+        <v>1547.70262</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>1099.54614</v>
+        <v>1487.80616</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>2911.28512</v>
+        <v>3929.01923</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>3648.5979</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>5222.74096</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>2849.162</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>190.5681</v>
+        <v>1952.73038</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>652.67475</v>
+        <v>864.9254599999999</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-6857.66521</v>
+        <v>-8968.77542</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>182.35861</v>
+        <v>1531.27145</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-6169.044519999999</v>
+        <v>-4762.62153</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-5150.80205</v>
+        <v>-6800.89878</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-5680.225179999999</v>
+        <v>-11565.75722</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-8148.19645</v>
+        <v>-15314.68335</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-4589.04522</v>
+        <v>-6314.58984</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-4219.60919</v>
+        <v>-16665.70816</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>1852.69691</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>3115.17784</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-7379.7</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>351</v>
+        <v>366</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>379</v>
+        <v>395</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>432</v>
+        <v>450</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>430</v>
+        <v>459</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>472</v>
+        <v>504</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>476</v>
+        <v>516</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>466</v>
+        <v>518</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>491</v>
+        <v>536</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>497</v>
+        <v>551</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>579</v>
+        <v>625</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>674</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>